--- a/activity/c-pointer/text05/template1.xlsx
+++ b/activity/c-pointer/text05/template1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <r>
       <t>pa[</t>
@@ -132,6 +132,38 @@
         <scheme val="minor"/>
       </rPr>
       <t>？</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*pa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>*(pa+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -202,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,11 +244,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,15 +272,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5</xdr:rowOff>
+      <xdr:colOff>609602</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -254,12 +289,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="847726" y="752476"/>
-          <a:ext cx="5248275" cy="447679"/>
+          <a:off x="857250" y="714376"/>
+          <a:ext cx="5238752" cy="657231"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 99909"/>
+            <a:gd name="adj1" fmla="val 100000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="15875">
@@ -289,14 +324,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -306,8 +341,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6115050" y="704850"/>
-          <a:ext cx="0" cy="495300"/>
+          <a:off x="6105525" y="714375"/>
+          <a:ext cx="9525" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -338,15 +373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -354,9 +389,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1514475" y="695325"/>
-          <a:ext cx="0" cy="514350"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1447800" y="685800"/>
+          <a:ext cx="1" cy="695326"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -388,14 +423,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -404,9 +439,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2209800" y="695325"/>
-          <a:ext cx="0" cy="514350"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2152650" y="685800"/>
+          <a:ext cx="9525" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -438,14 +473,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -455,8 +490,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2895600" y="685800"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="2838450" y="676275"/>
+          <a:ext cx="0" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -775,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K6"/>
+  <dimension ref="B3:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,24 +858,49 @@
         <v>3</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
